--- a/Test-cases.xlsx
+++ b/Test-cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Убедиться, что изменения в профиле сохраняются после выхода из приложения.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Изменения в профиле сохраняются после выхода из приложения.</t>
   </si>
   <si>
@@ -271,6 +268,186 @@
   </si>
   <si>
     <t>3. Настроить предпочтения для новостей и цитат (например, по категориям или авторам).</t>
+  </si>
+  <si>
+    <t>Авторизация  с валидными данными</t>
+  </si>
+  <si>
+    <t>Позитивный тест-кейс</t>
+  </si>
+  <si>
+    <t>Пользователь с валидными данными авторизован</t>
+  </si>
+  <si>
+    <t>2. В поле "Login" ввести валидный логин</t>
+  </si>
+  <si>
+    <t>2. В поле "Password" ввести валидный пароль</t>
+  </si>
+  <si>
+    <t>Авторизация с не валидными данными</t>
+  </si>
+  <si>
+    <t>Негативный тест-кейс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь с не валидными данными не авторизован в приложении. </t>
+  </si>
+  <si>
+    <t>2. В поле "Login" ввести не валидный логин</t>
+  </si>
+  <si>
+    <t>2. В поле "Password" ввести не валидный пароль</t>
+  </si>
+  <si>
+    <t>Создание новости на английском языке</t>
+  </si>
+  <si>
+    <t>Пользователь уже авторизован в системе, приложение открыто</t>
+  </si>
+  <si>
+    <t>1. Клик по "Action menu"</t>
+  </si>
+  <si>
+    <t>Авторизованный пользователь в системе успешно создал новую новость по необходимым ему критериям</t>
+  </si>
+  <si>
+    <t>2. Клик по кнопке "News"</t>
+  </si>
+  <si>
+    <t>3. Клик по кнопке "Controi panel"</t>
+  </si>
+  <si>
+    <t>4. Клик по кнопке "Creating news"</t>
+  </si>
+  <si>
+    <t>5. В поле "Категория" выбираем "Благодарность"</t>
+  </si>
+  <si>
+    <t>6. В поле "Title" печатаем название "Thank you"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. В поле "Publicate date" выбираем дату </t>
+  </si>
+  <si>
+    <t>8. В поле "Time" выбираем время</t>
+  </si>
+  <si>
+    <t>9. В поле "Descriptions" вводим текст</t>
+  </si>
+  <si>
+    <t>10. Клик по кнопке "Save"</t>
+  </si>
+  <si>
+    <t>Создание новости на русском языке</t>
+  </si>
+  <si>
+    <t>Авторизованный пользователь в системе не сможет создать новую новость по необходимым ему критериям с использованием русского языка</t>
+  </si>
+  <si>
+    <t>Редактирование новости</t>
+  </si>
+  <si>
+    <t>Авторизованный пользователь в системе после создания новости может ее редактировать.</t>
+  </si>
+  <si>
+    <t>4, Выбираем любую новость и нажимает на кнопку "Editing panel"</t>
+  </si>
+  <si>
+    <t>5. Редактируем текст новости</t>
+  </si>
+  <si>
+    <t>6. Клик по кнопке "Save"</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>Авторизованный пользователь в системе может удалить любую новость.</t>
+  </si>
+  <si>
+    <t>4. В списке новостей выбираем нужную и кликаем по кнопке "Корзина"</t>
+  </si>
+  <si>
+    <t>5. В открывшемся модальном окне подтвержаем действие по удалению кликом на кнопку "OK"</t>
+  </si>
+  <si>
+    <t>Изменение видимости  новости</t>
+  </si>
+  <si>
+    <t>Авторизованный пользователь в системе может изменить видимость новости.</t>
+  </si>
+  <si>
+    <t>4. В списке новостей выбираем нужную и кликаем по кнопке "Editing panel"</t>
+  </si>
+  <si>
+    <t>5. В форме редактирования ползунок в режиме "Active" изменяем на "Not Active"</t>
+  </si>
+  <si>
+    <t>Отображение информации о приложении</t>
+  </si>
+  <si>
+    <t>На странице должна отображаться информация о приложении, политика конфиденциальности и правила использования.</t>
+  </si>
+  <si>
+    <t>2. Клик по кнопке "About"</t>
+  </si>
+  <si>
+    <t>Раскрытие текста записей</t>
+  </si>
+  <si>
+    <t>1, Клик по кнопке "Love is all"</t>
+  </si>
+  <si>
+    <t>На странице "Love is all" клик по записи раскрывает ее содержимое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Из списка записей нажать на несколько </t>
+  </si>
+  <si>
+    <t>Фильтр новостей по видимости</t>
+  </si>
+  <si>
+    <t>Пользователь может отфильтровать новости в зависимости от ее активности/ видимости</t>
+  </si>
+  <si>
+    <t>4, Клик по кнопке "Filter news"</t>
+  </si>
+  <si>
+    <t>5, Убираем галочку с "Active"</t>
+  </si>
+  <si>
+    <t>6, Клик по кнопке "Filter"</t>
+  </si>
+  <si>
+    <t>Выход с учетной записи</t>
+  </si>
+  <si>
+    <t>1. Клик по кнопке "Account"</t>
+  </si>
+  <si>
+    <t>Пользователь выходит из ЛК приложения</t>
+  </si>
+  <si>
+    <t>2. Клик по кнопке "Log out"</t>
+  </si>
+  <si>
+    <t>Авторизация с валидным логином и не валидным паролем</t>
+  </si>
+  <si>
+    <t>Приложение открыто</t>
+  </si>
+  <si>
+    <t>1. В поле "Login" ввести валидный логин</t>
+  </si>
+  <si>
+    <t>Пользователь не пройдет аутентификацию и не получит доступ к ЛК</t>
+  </si>
+  <si>
+    <t>Авторизация с не валидным логином и валидным паролем</t>
+  </si>
+  <si>
+    <t>1. В поле "Login" ввести не валидный логин</t>
   </si>
 </sst>
 </file>
@@ -379,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -430,6 +607,13 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1261,13 +1445,13 @@
         <v>71</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -1288,7 +1472,7 @@
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G57" s="13"/>
     </row>
@@ -1310,7 +1494,7 @@
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="12"/>
     </row>
@@ -1319,10 +1503,10 @@
         <v>17.0</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>71</v>
@@ -1334,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
@@ -1355,114 +1539,997 @@
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G62" s="12"/>
+      <c r="C63" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="9">
+        <v>22.0</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G104" s="13"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" ht="30.75" customHeight="1">
+      <c r="A106" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" ht="36.75" customHeight="1">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="9">
+        <v>26.0</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="9">
+        <v>27.0</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="9">
+        <v>28.0</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="9">
+        <v>29.0</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="9">
+        <v>30.0</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G121" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="C51:C54"/>
+  <mergeCells count="180">
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="C110:C115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="D110:D115"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="B110:B115"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="G100:G105"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="G110:G115"/>
+    <mergeCell ref="E110:E115"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="D79:D88"/>
+    <mergeCell ref="E79:E88"/>
+    <mergeCell ref="G89:G94"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="E89:E94"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="G95:G99"/>
+    <mergeCell ref="G79:G88"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="C79:C88"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
     <mergeCell ref="C55:C59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="A55:A59"/>
     <mergeCell ref="D55:D59"/>
     <mergeCell ref="E55:E59"/>
     <mergeCell ref="G55:G59"/>
+    <mergeCell ref="A60:A62"/>
     <mergeCell ref="G60:G62"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:D78"/>
+    <mergeCell ref="E69:E78"/>
+    <mergeCell ref="G69:G78"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="G8:G11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="G14:G17"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
     <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
     <mergeCell ref="G32:G35"/>
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="G36:G40"/>
-    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
     <mergeCell ref="G46:G50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
     <mergeCell ref="G51:G54"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="E100:E105"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
